--- a/data/trans_dic/P25C$smedicoempresa_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25C$smedicoempresa_2023-Estudios-trans_dic.xlsx
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01838101575135454</v>
+        <v>0.01685349262042436</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.0157222046897121</v>
+        <v>0.0137738491681683</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.003079099340100018</v>
+        <v>0.003079099340100019</v>
       </c>
     </row>
     <row r="8">
@@ -647,11 +647,11 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01567133345979249</v>
+        <v>0.01735898475941616</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.01224498442455962</v>
+        <v>0.01115116631994469</v>
       </c>
     </row>
     <row r="10">
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.004068339615090251</v>
+        <v>0.004068339615090252</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.001592003908806274</v>
@@ -699,10 +699,10 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.02096040835790046</v>
+        <v>0.02353847893824949</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.008070613359738705</v>
+        <v>0.006508641362953622</v>
       </c>
     </row>
     <row r="13">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.003467241068626025</v>
+        <v>0.003467241068626024</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.00106614000947166</v>
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0008658705849982017</v>
+        <v>0.0008824675981854055</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0006086414397130224</v>
+        <v>0.0009391483575121558</v>
       </c>
     </row>
     <row r="15">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.009503244784166323</v>
+        <v>0.01109000023627765</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.006271684126394329</v>
+        <v>0.006104831364308582</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.007506877232283295</v>
+        <v>0.006981443765092266</v>
       </c>
     </row>
     <row r="16">
@@ -913,11 +913,11 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3237</v>
+        <v>2968</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>3509</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="8">
@@ -981,11 +981,11 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5211</v>
+        <v>5772</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>6791</v>
+        <v>6185</v>
       </c>
     </row>
     <row r="12">
@@ -1050,10 +1050,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>2004</v>
+        <v>2250</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1971</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="16">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>622</v>
+        <v>960</v>
       </c>
     </row>
     <row r="19">
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6246</v>
+        <v>7289</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2288</v>
+        <v>2227</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>7672</v>
+        <v>7135</v>
       </c>
     </row>
     <row r="20">
